--- a/DOWNLOADS/EDITAIS/U_984445_E_901092025/U_984445_E_901092025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_984445_E_901092025/U_984445_E_901092025_master.xlsx
@@ -121,43 +121,43 @@
     <t>Instrumento musical - percursão Instrumento Musical - Percursão Tipo: Xequerê, Material: Cabaça Purungo, Componentes: Cordão Encerado Miçangas, Tamanho: Big, Características Adicionais: Cores Variadas</t>
   </si>
   <si>
-    <t>Especificações mínimas: Itens Inclusos no Kkit: ( 02 Microfones sem fio, 01 Receptor sem fio, 01 Cabo USB-C ) Padrão cardióide, Receptor UHF de canal duplo, Suporte antichoque, Bateria recarregável, Conexão estável de 2,4 GHz. Tipo: Microfone - Wireless para Caixa Bluethooh. Entrada Auxiliar: Conexão Via Dongle” - incluso , receptor sem fio. Receptor com plugue P10. Compatível com todas as caixas de som PartyBox . Recarrega os Aparelhos: até 20 horas / Tempo de reprodução do dongle: até 12 horas. Potência de Áudio Total: Pressão Sonora: 157 dB SPL</t>
-  </si>
-  <si>
-    <t>estudante: Corpo ABS Platinetas: Inox Material da Platinetas: Inox Garra Injetada Pele: Leitosa Acompanha Chave de Afinação Peso apoximado: 515g Diâmetro aproximado: 25,4cm Altura aproximada: 5cm Garantia: 6 meses</t>
-  </si>
-  <si>
-    <t>Pandeirola meia-lua em ABS; Platinetas: Inox; Empunhadura anatômica; Material; ABS; tamanho padrão internacional; Marca Sugerida: Luen</t>
-  </si>
-  <si>
-    <t>- Projetado para amadores e profissionais.. - Tampa de tília, madeira que apresenta um bom equilíbrio de graves, por isso soa com mais peso rítmico e um tom suave. Cordas em NYLON Cor: Natural</t>
-  </si>
-  <si>
-    <t>MODELO FOLK, TIPO BAG ACOLCHOADA - COM 1 BOLSO EXTERNO PARA ACESSÓRIOS, ALÇA DE COSTA DUPLA, NYLON 600, ESPUMA DE NO MINIMO 2,5 CM, FORRO TNT IMPORTADO, ZÍPER 10, ALÇA 4 CM, DIMENSÕES APROX. 60.000 x 110.000 x100.000 CM.</t>
-  </si>
-  <si>
-    <t>PARA VIOLÃO, GUITARRA OU BAIXO - EM NYLON COM PONTEIRAS DE COURO SINTÉTICO E REGULADOR DE COMPRIMENTO, COR: PRETA.</t>
-  </si>
-  <si>
-    <t>ELÉTRICA MÍNIMO DE 30 METROS, CABO PP CIRCULAR COM DUPLA ISOLAÇÃO,IMINIMO DE 2X2, 50 MM, MINIMO 20 AMPERES, MIÍNIMO DE 3 TOMADAS CONFORME NBR 13249, COM CARRETEL.</t>
-  </si>
-  <si>
-    <t>127 OU 220 2P+T 10A S/DISJUNTOR NBR PRETA</t>
-  </si>
-  <si>
-    <t>Tensão Média; Alma; Nylon; Revestimento: Cobre Prateado; Acabamento: Bolinha; Comprimento de Escala: 650mm. Marca Sugerida: D'Addario Garantia Mínima de 90 dias</t>
-  </si>
-  <si>
-    <t>- COM FIO, CORPO METÁLICO NIQUELADO, GLOBO EM ACO NIQUELADO,CABO COAXIAL BLINDADO E BALANCEADO COM CINCO METROS,PESO 300GR (MICROFONE),CHAVE ONOFF NO CORPO, CAPSULA DINÂMICA, RESPOSTA DE FREQUENCIA 50 HZ A 15 KHzZ, IMPEDANCIA 350 W / ALTA 5 KOHM,SENSIBILIDADE A 1 KHZ BAIXA 56 DB / ALTA 46 DB (0 DB = 1 V/ PA) CONECTORES P 10 (0 6,3 MM) E XLR 3 PINOS (TIPO CANNON) DIAGRAMA POLAR, UNIDIRECIONAL (CARDIOIDE), MODELO SM 58, ACONDICIONADO EM EMBALAGEM APROPRIADA.</t>
-  </si>
-  <si>
-    <t>350 W, woofer de 15", resposta de frequência de 45- 18 kHz e SPL de 128 dB. Sensibilidade de 97 dB, impedância de 4 ohms e cobertura H100º x V60º. Bobina do woofer de 2,5", driver de 1,75"(8 ohms), saída de 1", ímã de 60 oz, bobina de voz de 65,5 mm. Estrutura com metal de 1,0 mm, garfo em T de 8 mm e placa superior de 8 mm sem cone de pressão. Crossover em 2000/3200 Hz, entrada XLR (TS) e Bluetooth (TWS). Dimensões: 46,9 x 45,9 x 70,0 cm. Garantia: mínimo 12 meses.</t>
-  </si>
-  <si>
-    <t>CAJON ACÚSTICO INCLINADO COM ESTEIRA</t>
-  </si>
-  <si>
-    <t>XEQUERÊ, AGBÊ PEQUENO</t>
+    <t>KIT MICROFONE SEM FIO – Especificações mínimas: Itens Inclusos no kit: ( 02 Microfones sem fio, 01 Receptor sem fio, 01 Cabo USB-C ) Padrão cardióide, Receptor UHF de canal duplo, Suporte antichoque, Bateria recarregável, Conexão estável de 2,4 GHz. Tipo: Microfone - Wireless para Caixa Bluethooh. Entrada Auxiliar: Conexão Via Dongle´ - incluso , receptor sem fio. Receptor com plugue P10. Compatível com todas as caixas de som PartyBox . Recarrega os Aparelhos: até 20 horas / Tempo de reprodução do dongle: até 12 horas. Potência de Áudio Total: Pressão Sonora: 157 dB SPL</t>
+  </si>
+  <si>
+    <t>INSTRUMENTO MUSICAL - Pandeiro 10 polegadas – estudante: Corpo ABS Platinetas: Inox Material da Platinetas: Inox Garra Injetada Pele: Leitosa Acompanha Chave de Afinação Peso apoximado: 515g Diâmetro aproximado: 25,4cm Altura aproximada: 5cm Garantia: 6 meses</t>
+  </si>
+  <si>
+    <t>PANDEIROLA - PANDEIROLA MEIA LUA INOX COM PEGADOR Pandeirola meia-lua em ABS; Platinetas: Inox; Empunhadura anatômica; Material; ABS; tamanho padrão internacional; Marca Sugerida: Luen</t>
+  </si>
+  <si>
+    <t>VIOLÃO - Violão Acústico Nylon - - Projetado para amadores e profissionais.. - Tampa de tília, madeira que apresenta um bom equilíbrio de graves, por isso soa com mais peso rítmico e um tom suave. Cordas em NYLON Cor: Natural</t>
+  </si>
+  <si>
+    <t>CAPA PARA VIOLÃO - CAPA PARA VIOLÃO- MODELO FOLK, TIPO BAG ACOLCHOADA - COM 1 BOLSO EXTERNO PARA ACESSÓRIOS, ALÇA DE COSTA DUPLA, NYLON 600, ESPUMA DE NO MINIMO 2,5 CM, FORRO TNT IMPORTADO, ZÍPER 10, ALÇA 4 CM, DIMENSÕES APROX. 60.000 x 110.000 x100.000 CM.</t>
+  </si>
+  <si>
+    <t>CORREIA PARA INSTRUMENTOS MUSICAIS - CORREIA PARA INSTRUMENTOS MUSICAIS PARA VIOLÃO, GUITARRA OU BAIXO - EM NYLON COM PONTEIRAS DE COURO SINTÉTICO E REGULADOR DE COMPRIMENTO, COR: PRETA.</t>
+  </si>
+  <si>
+    <t>EXTENSÃO - EXTENSÃO ELÉTRICA CARRETEL 30M / 20A ELÉTRICA MÍNIMO DE 30 METROS, CABO PP CIRCULAR COM DUPLA ISOLAÇÃO, MÍNIMO DE 2X2, 50 MM, MÍNIMO 20 AMPERES, MÍNIMO DE 3 TOMADAS CONFORME NBR 13249, COM CARRETEL.</t>
+  </si>
+  <si>
+    <t>FILTRO DE LINHA - FILTRO DE LINHA DE 12 TOMADAS – 127 OU 220 2P+T 10A S/DISJUNTOR NBR PRETA</t>
+  </si>
+  <si>
+    <t>ENCORDOAMENTOS - JOGO DE ENCORDOAMENTO PARA VIOLÃO NYLON Tensão Média; Alma; Nylon; Revestimento: Cobre Prateado; Acabamento: Bolinha; Comprimento de Escala: 650mm. Marca Sugerida: D’Addario Garantia Mínima de 90 dias</t>
+  </si>
+  <si>
+    <t>MICROFONE - - MICROFONE PROFISSIONAL COM FIO MODELO SM-58 - COM FIO, CORPO METÁLICO NIQUELADO, GLOBO EM ACO NIQUELADO,CABO COAXIAL BLINDADO E BALANCEADO COM CINCO METROS,PESO 300GR (MICROFONE),CHAVE ONOFF NO CORPO, CAPSULA DINÂMICA,RESPOSTA DE FREQUENCIA 50 HZ A 15 KHZ, IMPEDANCIA 350 W / ALTA 5 KOHM,SENSIBILIDADE A 1 KHZ BAIXA 56 DB / ALTA 46 DB (0 DB = 1 V / PA),CONECTORES P 10 (0 6,3 MM) E XLR 3 PINOS (TIPO CANNON) DIAGRAMA POLAR, UNIDIRECIONAL (CARDIOIDE),MODELO SM 58,ACONDICIONADO EM EMBALAGEM APROPRIADA.</t>
+  </si>
+  <si>
+    <t>CAIXA DE SOM - CAIXA DE SOM ATIVA 350 W, woofer de 15", resposta de frequência de 45- 18 kHz e SPL de 128 dB. Sensibilidade de 97 dB, impedância de 4 ohms e cobertura H100° x V60°. Bobina do woofer de 2,5", driver de 1,75"(8 ohms), saída de 1", ímã de 60 oz, bobina de voz de 65,5 mm. Estrutura com metal de 1,0 mm, garfo em T de 8 mm e placa superior de 8 mm sem cone de pressão. Crossover em 2000/3200 Hz, entrada XLR (TS) e Bluetooth (TWS). Dimensões: 46,9 x 45,9 x 70,0 cm. Garantia: mínimo 12 meses.</t>
+  </si>
+  <si>
+    <t>CAJON - CAJON ACÚSTICO INCLINADO COM ESTEIRA</t>
+  </si>
+  <si>
+    <t>XEQUERÊ - XEQUERÊ, AGBÊ PEQUENO</t>
   </si>
   <si>
     <t>Unidade</t>
